--- a/ASP_AIS_Policlinic/wwwroot/Reports/report_doctors.xlsx
+++ b/ASP_AIS_Policlinic/wwwroot/Reports/report_doctors.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Список врачей</t>
   </si>
@@ -72,16 +72,13 @@
     <t>Сомнолог</t>
   </si>
   <si>
-    <t>Захаров</t>
-  </si>
-  <si>
-    <t>Владислав</t>
+    <t>Захар</t>
+  </si>
+  <si>
+    <t>Влад</t>
   </si>
   <si>
     <t>Олегович</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -559,7 +556,7 @@
         <v>7</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
